--- a/Julio/26 julio/tlatlauquitepec/26 JULIO PLANTILLA LISTA DE ASPIRANTES_1 SISTEMA BASICO ITSTL 26 DE JULIO.xlsx
+++ b/Julio/26 julio/tlatlauquitepec/26 JULIO PLANTILLA LISTA DE ASPIRANTES_1 SISTEMA BASICO ITSTL 26 DE JULIO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Proyecto01TICs\Documents\Evaluatec2024\Julio\26 julio\tlatlauquitepec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaxoC\OneDrive\Documents\EVALUATEC2024\Julio\26 julio\tlatlauquitepec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D34053-F467-40A8-90B5-5E7DD350B392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EEF2CD-0CE1-4FE6-9A5B-B8116A00EAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="266">
   <si>
     <t>INDICAR SI EL ASPIRANTE DEBE PRESENTARSE EN EL PLANTEL PARA REALIZAR EL EXAMEN</t>
   </si>
@@ -95,9 +95,6 @@
     <t>COPU-2010-205</t>
   </si>
   <si>
-    <t>CP*</t>
-  </si>
-  <si>
     <t>BASICA</t>
   </si>
   <si>
@@ -407,9 +404,6 @@
     <t>RESURRECCIONJOHNATAN@GMAIL.COM</t>
   </si>
   <si>
-    <t>IIAS*</t>
-  </si>
-  <si>
     <t>MARIANA</t>
   </si>
   <si>
@@ -632,9 +626,6 @@
     <t>ALEJANDROCAMPOS3456@GMAIL.COM</t>
   </si>
   <si>
-    <t>IA*</t>
-  </si>
-  <si>
     <t>JUAN JOSE MELCHOR MARCELO</t>
   </si>
   <si>
@@ -837,6 +828,12 @@
   </si>
   <si>
     <t>MARISOLJIM0504@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>2024/07/26 09:00</t>
+  </si>
+  <si>
+    <t>2024/07/26 13:00</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1023,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1121,6 +1118,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Encabezado 1" xfId="1" builtinId="16"/>
@@ -1201,9 +1205,15 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="A4:M85" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="A4:M85" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <autoFilter ref="A4:M85" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="CP"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:M85">
-    <sortCondition ref="A4:A85"/>
+    <sortCondition ref="K4:K85"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="FICHA" dataDxfId="13"/>
@@ -1523,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A81"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1544,6 +1554,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="36" t="s">
+        <v>264</v>
+      </c>
       <c r="L1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1559,6 +1572,9 @@
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
+      <c r="K2" s="36" t="s">
+        <v>265</v>
+      </c>
       <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1606,1645 +1622,1645 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
-        <v>1</v>
+      <c r="A5" s="34">
+        <v>7</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="6">
         <v>45491</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
-        <v>2</v>
+      <c r="A6" s="21">
+        <v>9</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="6">
         <v>45491</v>
       </c>
       <c r="I6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>23</v>
+      <c r="L6" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N6" s="32"/>
       <c r="O6" s="32"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>3</v>
+      <c r="A7" s="21">
+        <v>11</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="6">
         <v>45491</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
-        <v>4</v>
+      <c r="A8" s="21">
+        <v>16</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="6">
         <v>45491</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>5</v>
+      <c r="A9" s="21">
+        <v>6</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="6">
         <v>45491</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" s="6">
         <v>45491</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" s="6">
         <v>45491</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="6">
         <v>45491</v>
       </c>
       <c r="I12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>38</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>1</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
+        <v>3</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>5</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
+        <v>12</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>14</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>17</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>18</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>26</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="25">
+        <v>27</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
         <v>28</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="B28" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
-        <v>10</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="L28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
+        <v>29</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
+        <v>30</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
+        <v>32</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
+        <v>33</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
+        <v>40</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23">
+        <v>2</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I14" s="7" t="s">
+      <c r="G34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
-        <v>11</v>
-      </c>
-      <c r="B15" s="16" t="s">
+      <c r="L34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23">
+        <v>4</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23">
+        <v>15</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23">
+        <v>19</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23">
+        <v>31</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23">
+        <v>34</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23">
         <v>35</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="B40" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
-        <v>12</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
-        <v>13</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
-        <v>14</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
-        <v>15</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
-        <v>16</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
-        <v>17</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
-        <v>18</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
-        <v>19</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
-        <v>20</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
-        <v>21</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
-        <v>22</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
-        <v>23</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="26">
-        <v>24</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
-        <v>25</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
-        <v>26</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
-        <v>27</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
-        <v>28</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="24">
-        <v>29</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="24">
-        <v>30</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="23">
-        <v>31</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
-        <v>32</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
-        <v>33</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="23">
-        <v>34</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
-        <v>35</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M39" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="21">
-        <v>36</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L40" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>37</v>
       </c>
       <c r="B41" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="E41" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23">
+        <v>39</v>
+      </c>
+      <c r="B42" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="C42" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="D42" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I41" s="7" t="s">
+      <c r="G42" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="27">
+        <v>45491</v>
+      </c>
+      <c r="I42" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="27">
+        <v>45499</v>
+      </c>
+      <c r="K42" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M41" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="22">
-        <v>38</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I42" s="7" t="s">
+      <c r="L42" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23">
+        <v>10</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J42" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="23">
-        <v>39</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="E43" s="14" t="s">
+      <c r="L43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23">
+        <v>13</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F43" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="27">
-        <v>45491</v>
-      </c>
-      <c r="I43" s="30" t="s">
+      <c r="G44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J43" s="27">
-        <v>45499</v>
-      </c>
-      <c r="K43" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="L43" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="M43" s="30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="24">
-        <v>40</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J44" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L44" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -3252,40 +3268,40 @@
         <v>41</v>
       </c>
       <c r="B45" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>146</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>148</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H45" s="6">
         <v>45491</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J45" s="6">
         <v>45499</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -3293,1275 +3309,1275 @@
         <v>42</v>
       </c>
       <c r="B46" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="19" t="s">
         <v>150</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>152</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H46" s="6">
         <v>45491</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J46" s="6">
         <v>45499</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="23">
-        <v>43</v>
+      <c r="A47" s="21">
+        <v>48</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>255</v>
+        <v>151</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>256</v>
+        <v>152</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H47" s="6">
         <v>45491</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J47" s="6">
         <v>45499</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="24">
-        <v>44</v>
+      <c r="A48" s="21">
+        <v>50</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F48" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="21">
+        <v>51</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="21">
+        <v>54</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="21">
         <v>59</v>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="24">
-        <v>45</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J49" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M49" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="23">
-        <v>46</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J50" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M50" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="24">
-        <v>47</v>
-      </c>
       <c r="B51" s="16" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H51" s="6">
         <v>45491</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J51" s="6">
         <v>45499</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H52" s="6">
         <v>45491</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J52" s="6">
         <v>45499</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="23">
-        <v>49</v>
+      <c r="A53" s="21">
+        <v>67</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>261</v>
+        <v>175</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>263</v>
+        <v>177</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H53" s="6">
         <v>45491</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J53" s="6">
         <v>45499</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H54" s="6">
         <v>45491</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J54" s="6">
         <v>45499</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H55" s="6">
         <v>45491</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J55" s="6">
         <v>45499</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="22">
-        <v>52</v>
+      <c r="A56" s="21">
+        <v>72</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H56" s="6">
         <v>45491</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J56" s="6">
         <v>45499</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="24">
-        <v>53</v>
+      <c r="A57" s="21">
+        <v>75</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H57" s="6">
         <v>45491</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J57" s="6">
         <v>45499</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H58" s="6">
         <v>45491</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J58" s="6">
         <v>45499</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="24">
-        <v>55</v>
+      <c r="A59" s="21">
+        <v>63</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H59" s="6">
         <v>45491</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J59" s="6">
         <v>45499</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M59" s="7" t="s">
-        <v>24</v>
+        <v>147</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H60" s="6">
         <v>45491</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J60" s="6">
         <v>45499</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="22">
+        <v>52</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="24">
+        <v>44</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="F62" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="24">
+        <v>45</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="24">
+        <v>47</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="24">
+        <v>53</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M65" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="24">
+        <v>55</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="24">
+        <v>57</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M67" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="24">
+        <v>58</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D68" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E68" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J61" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M61" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="24">
+      <c r="G68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M68" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="24">
+        <v>60</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="E62" s="5" t="s">
+      <c r="G69" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="24">
+        <v>61</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J62" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M62" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="21">
-        <v>59</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H63" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J63" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M63" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="24">
-        <v>60</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="E64" s="5" t="s">
+      <c r="G70" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="24">
+        <v>64</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J64" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M64" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="24">
-        <v>61</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="E65" s="5" t="s">
+      <c r="G71" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M71" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="24">
+        <v>65</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J65" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M65" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="21">
-        <v>62</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J66" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M66" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="21">
-        <v>63</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H67" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J67" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M67" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="24">
-        <v>64</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="E68" s="5" t="s">
+      <c r="G72" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M72" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="24">
+        <v>66</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H68" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J68" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L68" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M68" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="24">
-        <v>65</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="E69" s="5" t="s">
+      <c r="G73" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M73" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="24">
+        <v>68</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J69" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L69" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M69" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="24">
-        <v>66</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="D70" s="19" t="s">
+      <c r="G74" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="24">
+        <v>69</v>
+      </c>
+      <c r="B75" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="C75" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J70" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M70" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="21">
-        <v>67</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J71" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M71" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="24">
-        <v>68</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="E72" s="5" t="s">
+      <c r="G75" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="6">
+        <v>45491</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" s="6">
+        <v>45499</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M75" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="24">
+        <v>73</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J72" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L72" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M72" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="24">
-        <v>69</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J73" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K73" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L73" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M73" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="21">
-        <v>70</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J74" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K74" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L74" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M74" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="21">
-        <v>71</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H75" s="6">
-        <v>45491</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J75" s="6">
-        <v>45499</v>
-      </c>
-      <c r="K75" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L75" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M75" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="21">
-        <v>72</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="G76" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H76" s="6">
         <v>45491</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J76" s="6">
         <v>45499</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>240</v>
@@ -4573,36 +4589,36 @@
         <v>242</v>
       </c>
       <c r="E77" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="G77" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H77" s="6">
         <v>45491</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J77" s="6">
         <v>45499</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M77" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B78" s="16" t="s">
         <v>243</v>
@@ -4614,280 +4630,280 @@
         <v>245</v>
       </c>
       <c r="E78" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F78" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="G78" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H78" s="6">
         <v>45491</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J78" s="6">
         <v>45499</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="21">
-        <v>75</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="24">
+        <v>79</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H79" s="6">
         <v>45491</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J79" s="6">
         <v>45499</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M79" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E80" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="G80" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H80" s="6">
         <v>45491</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J80" s="6">
         <v>45499</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="21">
-        <v>77</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="23">
+        <v>46</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H81" s="6">
         <v>45491</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J81" s="6">
         <v>45499</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M81" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>78</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E82" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F82" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F82" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="G82" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H82" s="6">
         <v>45491</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J82" s="6">
         <v>45499</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="24">
-        <v>79</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="23">
+        <v>43</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H83" s="6">
         <v>45491</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J83" s="6">
         <v>45499</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M83" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="25">
-        <v>80</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="35">
+        <v>49</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H84" s="6">
         <v>45491</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J84" s="6">
         <v>45499</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M84" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="H85" s="1"/>
@@ -6317,8 +6333,8 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D54" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D62" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D48" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D68" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
